--- a/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/Lecture_4/Student_participants.xlsx
+++ b/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/Lecture_4/Student_participants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_Sem2_ANL252_Python_4_Biz\3_Lecturer\Lecture_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_Sem2_ANL252_Python_4_Biz\3_Lecturer\Lecture_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DD459D-0FF0-4207-8A5C-FD81BA0FFEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084838A9-83D4-4944-9C9E-5ACC22BD584E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="2115" windowWidth="18420" windowHeight="11850" xr2:uid="{914BBCC9-BE1B-42C0-B246-76403C37B70C}"/>
+    <workbookView xWindow="7740" yWindow="1755" windowWidth="19860" windowHeight="13200" xr2:uid="{914BBCC9-BE1B-42C0-B246-76403C37B70C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Alexandre oudea</t>
   </si>
@@ -71,6 +71,30 @@
   </si>
   <si>
     <t>kynana</t>
+  </si>
+  <si>
+    <t>Boon May (Chen Wenmei) Tan</t>
+  </si>
+  <si>
+    <t>Lal Rem van</t>
+  </si>
+  <si>
+    <t>Tricia Ang</t>
+  </si>
+  <si>
+    <t>Pei shi Lee</t>
+  </si>
+  <si>
+    <t>Chi Hang</t>
+  </si>
+  <si>
+    <t>Grp 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wenying audrey (chen wenying) Tan </t>
+  </si>
+  <si>
+    <t>Grp 8</t>
   </si>
 </sst>
 </file>
@@ -422,77 +446,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBE46E2-0453-401E-8766-6A2038888782}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
